--- a/PANEL_SOLAR.xlsx
+++ b/PANEL_SOLAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9972441E-9624-4A3B-89B5-33C448E3CCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C7258B-EF90-45F0-9177-61ABFAAF73E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{760E7EE7-CB8E-407D-BA10-3021C6C77C2B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>BATERIAS</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>CONTROLADOR A LAS BATERIAS</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -696,10 +699,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449F1970-D935-45C5-AA56-F254E3C51136}">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,6 +940,11 @@
         <v>25</v>
       </c>
     </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
